--- a/src/main/resources/modules/REGRESSION.xlsx
+++ b/src/main/resources/modules/REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="20490" windowHeight="2100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="20490" windowHeight="2100"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -1544,20 +1544,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1672,12 +1658,2021 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="448">
+  <dxfs count="447">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1833,90 +3828,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -1965,90 +3876,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -2097,104 +3924,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -2243,90 +3972,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -2375,90 +4020,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -2507,97 +4068,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -2646,97 +4116,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -2785,90 +4164,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -2917,90 +4212,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -3049,90 +4260,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -3181,90 +4308,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -3313,90 +4356,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -3445,90 +4404,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -3577,90 +4452,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFED7D31"/>
           <bgColor rgb="FFED7D31"/>
@@ -3704,804 +4495,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4B083"/>
           <bgColor rgb="FFF4B083"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5269,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5547,49 +5540,49 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="214" customFormat="1">
-      <c r="A11" s="210">
+    <row r="11" spans="1:26" s="208" customFormat="1">
+      <c r="A11" s="204">
         <v>9</v>
       </c>
-      <c r="B11" s="211">
+      <c r="B11" s="205">
         <v>6624158</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="213" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="213" t="s">
+      <c r="D11" s="207" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="213" t="s">
+      <c r="F11" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="213" t="s">
+      <c r="I11" s="207" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="214" customFormat="1">
-      <c r="A12" s="210">
+    <row r="12" spans="1:26" s="208" customFormat="1">
+      <c r="A12" s="204">
         <v>10</v>
       </c>
-      <c r="B12" s="211">
+      <c r="B12" s="205">
         <v>6624159</v>
       </c>
-      <c r="C12" s="212" t="s">
+      <c r="C12" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="213" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="213" t="s">
+      <c r="D12" s="207" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="213" t="s">
+      <c r="F12" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="213" t="s">
+      <c r="I12" s="207" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5604,7 +5597,7 @@
         <v>142</v>
       </c>
       <c r="D13" s="165" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" s="143" t="s">
         <v>43</v>
@@ -5650,7 +5643,7 @@
         <v>144</v>
       </c>
       <c r="D15" s="165" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="143" t="s">
         <v>43</v>
@@ -5731,16 +5724,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="181" customFormat="1">
-      <c r="A19" s="178"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="183" t="s">
+    <row r="19" spans="1:9" s="175" customFormat="1">
+      <c r="A19" s="172"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="I19" s="182"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="I19" s="176"/>
     </row>
     <row r="20" spans="1:9" s="141" customFormat="1">
       <c r="A20" s="37">
@@ -7231,7 +7224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A213" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
@@ -7304,12 +7297,12 @@
     </row>
     <row r="2" spans="1:26" s="103" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="135"/>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="177"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="99"/>
       <c r="G2" s="100"/>
       <c r="H2" s="98"/>
@@ -7852,12 +7845,12 @@
     <row r="21" spans="1:26" s="91" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="139"/>
       <c r="B21" s="129"/>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="174"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
       <c r="G21" s="88"/>
       <c r="H21" s="89"/>
       <c r="I21" s="90"/>
@@ -7907,12 +7900,12 @@
     </row>
     <row r="24" spans="1:26" s="103" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="135"/>
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="177"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="217"/>
       <c r="F24" s="99"/>
       <c r="G24" s="100"/>
       <c r="H24" s="98"/>
@@ -8445,12 +8438,12 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="139"/>
       <c r="B42" s="129"/>
-      <c r="C42" s="172" t="s">
+      <c r="C42" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="174"/>
+      <c r="D42" s="213"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="214"/>
       <c r="G42" s="88"/>
       <c r="H42" s="89"/>
       <c r="I42" s="90"/>
@@ -8502,12 +8495,12 @@
     </row>
     <row r="45" spans="1:26" s="103" customFormat="1" ht="19.5" customHeight="1">
       <c r="A45" s="135"/>
-      <c r="B45" s="175" t="s">
+      <c r="B45" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="177"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="217"/>
       <c r="F45" s="99"/>
       <c r="G45" s="100"/>
       <c r="H45" s="98"/>
@@ -9000,12 +8993,12 @@
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="139"/>
       <c r="B62" s="129"/>
-      <c r="C62" s="172" t="s">
+      <c r="C62" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="173"/>
-      <c r="E62" s="173"/>
-      <c r="F62" s="174"/>
+      <c r="D62" s="213"/>
+      <c r="E62" s="213"/>
+      <c r="F62" s="214"/>
       <c r="G62" s="88"/>
       <c r="H62" s="89"/>
       <c r="I62" s="90"/>
@@ -9059,12 +9052,12 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="135"/>
-      <c r="B65" s="175" t="s">
+      <c r="B65" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="176"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="177"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="216"/>
+      <c r="E65" s="217"/>
       <c r="F65" s="99"/>
       <c r="G65" s="100"/>
       <c r="H65" s="98"/>
@@ -9596,12 +9589,12 @@
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="55"/>
       <c r="B82" s="129"/>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="173"/>
-      <c r="E82" s="173"/>
-      <c r="F82" s="174"/>
+      <c r="D82" s="213"/>
+      <c r="E82" s="213"/>
+      <c r="F82" s="214"/>
       <c r="G82" s="88"/>
       <c r="H82" s="89"/>
       <c r="I82" s="90"/>
@@ -9679,12 +9672,12 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="135"/>
-      <c r="B86" s="175" t="s">
+      <c r="B86" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="176"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="177"/>
+      <c r="C86" s="216"/>
+      <c r="D86" s="216"/>
+      <c r="E86" s="217"/>
       <c r="F86" s="99"/>
       <c r="G86" s="100"/>
       <c r="H86" s="98"/>
@@ -10226,12 +10219,12 @@
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="55"/>
       <c r="B104" s="129"/>
-      <c r="C104" s="172" t="s">
+      <c r="C104" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D104" s="173"/>
-      <c r="E104" s="173"/>
-      <c r="F104" s="174"/>
+      <c r="D104" s="213"/>
+      <c r="E104" s="213"/>
+      <c r="F104" s="214"/>
       <c r="G104" s="88"/>
       <c r="H104" s="89"/>
       <c r="I104" s="90"/>
@@ -10324,12 +10317,12 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="135"/>
-      <c r="B108" s="175" t="s">
+      <c r="B108" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="C108" s="176"/>
-      <c r="D108" s="176"/>
-      <c r="E108" s="177"/>
+      <c r="C108" s="216"/>
+      <c r="D108" s="216"/>
+      <c r="E108" s="217"/>
       <c r="F108" s="99"/>
       <c r="G108" s="100"/>
       <c r="H108" s="98"/>
@@ -10831,12 +10824,12 @@
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="55"/>
       <c r="B125" s="129"/>
-      <c r="C125" s="172" t="s">
+      <c r="C125" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="D125" s="173"/>
-      <c r="E125" s="173"/>
-      <c r="F125" s="174"/>
+      <c r="D125" s="213"/>
+      <c r="E125" s="213"/>
+      <c r="F125" s="214"/>
       <c r="G125" s="88"/>
       <c r="H125" s="89"/>
       <c r="I125" s="90"/>
@@ -10884,12 +10877,12 @@
     </row>
     <row r="129" spans="1:12" ht="15.75" customHeight="1">
       <c r="A129" s="135"/>
-      <c r="B129" s="175" t="s">
+      <c r="B129" s="215" t="s">
         <v>171</v>
       </c>
-      <c r="C129" s="176"/>
-      <c r="D129" s="176"/>
-      <c r="E129" s="177"/>
+      <c r="C129" s="216"/>
+      <c r="D129" s="216"/>
+      <c r="E129" s="217"/>
       <c r="F129" s="99"/>
       <c r="G129" s="100"/>
       <c r="H129" s="98"/>
@@ -11363,12 +11356,12 @@
     <row r="146" spans="1:12" ht="15.75" customHeight="1">
       <c r="A146" s="55"/>
       <c r="B146" s="129"/>
-      <c r="C146" s="172" t="s">
+      <c r="C146" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="D146" s="173"/>
-      <c r="E146" s="173"/>
-      <c r="F146" s="174"/>
+      <c r="D146" s="213"/>
+      <c r="E146" s="213"/>
+      <c r="F146" s="214"/>
       <c r="G146" s="88"/>
       <c r="H146" s="89"/>
       <c r="I146" s="90"/>
@@ -11412,12 +11405,12 @@
     </row>
     <row r="149" spans="1:12" ht="15.75" customHeight="1">
       <c r="A149" s="135"/>
-      <c r="B149" s="175" t="s">
+      <c r="B149" s="215" t="s">
         <v>170</v>
       </c>
-      <c r="C149" s="176"/>
-      <c r="D149" s="176"/>
-      <c r="E149" s="177"/>
+      <c r="C149" s="216"/>
+      <c r="D149" s="216"/>
+      <c r="E149" s="217"/>
       <c r="F149" s="99"/>
       <c r="G149" s="100"/>
       <c r="H149" s="98"/>
@@ -11891,12 +11884,12 @@
     <row r="166" spans="1:12" ht="15.75" customHeight="1">
       <c r="A166" s="55"/>
       <c r="B166" s="129"/>
-      <c r="C166" s="172" t="s">
+      <c r="C166" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="D166" s="173"/>
-      <c r="E166" s="173"/>
-      <c r="F166" s="174"/>
+      <c r="D166" s="213"/>
+      <c r="E166" s="213"/>
+      <c r="F166" s="214"/>
       <c r="G166" s="88"/>
       <c r="H166" s="89"/>
       <c r="I166" s="90"/>
@@ -11953,12 +11946,12 @@
     </row>
     <row r="172" spans="1:12" ht="15.75" customHeight="1">
       <c r="A172" s="135"/>
-      <c r="B172" s="175" t="s">
+      <c r="B172" s="215" t="s">
         <v>107</v>
       </c>
-      <c r="C172" s="176"/>
-      <c r="D172" s="176"/>
-      <c r="E172" s="177"/>
+      <c r="C172" s="216"/>
+      <c r="D172" s="216"/>
+      <c r="E172" s="217"/>
       <c r="F172" s="99"/>
       <c r="G172" s="100"/>
       <c r="H172" s="98"/>
@@ -12431,12 +12424,12 @@
     <row r="189" spans="1:12" ht="15.75" customHeight="1">
       <c r="A189" s="55"/>
       <c r="B189" s="129"/>
-      <c r="C189" s="172" t="s">
+      <c r="C189" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="D189" s="173"/>
-      <c r="E189" s="173"/>
-      <c r="F189" s="174"/>
+      <c r="D189" s="213"/>
+      <c r="E189" s="213"/>
+      <c r="F189" s="214"/>
       <c r="G189" s="88"/>
       <c r="H189" s="89"/>
       <c r="I189" s="90"/>
@@ -12480,12 +12473,12 @@
     </row>
     <row r="192" spans="1:12" ht="15.75" customHeight="1">
       <c r="A192" s="135"/>
-      <c r="B192" s="175" t="s">
+      <c r="B192" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="C192" s="176"/>
-      <c r="D192" s="176"/>
-      <c r="E192" s="177"/>
+      <c r="C192" s="216"/>
+      <c r="D192" s="216"/>
+      <c r="E192" s="217"/>
       <c r="F192" s="99"/>
       <c r="G192" s="100"/>
       <c r="H192" s="98"/>
@@ -12958,12 +12951,12 @@
     <row r="209" spans="1:12" ht="15.75" customHeight="1">
       <c r="A209" s="55"/>
       <c r="B209" s="129"/>
-      <c r="C209" s="172" t="s">
+      <c r="C209" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="D209" s="173"/>
-      <c r="E209" s="173"/>
-      <c r="F209" s="174"/>
+      <c r="D209" s="213"/>
+      <c r="E209" s="213"/>
+      <c r="F209" s="214"/>
       <c r="G209" s="88"/>
       <c r="H209" s="89"/>
       <c r="I209" s="90"/>
@@ -13007,12 +13000,12 @@
     </row>
     <row r="212" spans="1:12" ht="15.75" customHeight="1">
       <c r="A212" s="135"/>
-      <c r="B212" s="175" t="s">
+      <c r="B212" s="215" t="s">
         <v>119</v>
       </c>
-      <c r="C212" s="176"/>
-      <c r="D212" s="176"/>
-      <c r="E212" s="177"/>
+      <c r="C212" s="216"/>
+      <c r="D212" s="216"/>
+      <c r="E212" s="217"/>
       <c r="F212" s="99"/>
       <c r="G212" s="100"/>
       <c r="H212" s="98"/>
@@ -13441,16 +13434,16 @@
         <v>6624160</v>
       </c>
       <c r="B227" s="127"/>
-      <c r="C227" s="215" t="s">
+      <c r="C227" s="209" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="216" t="s">
+      <c r="D227" s="210" t="s">
         <v>175</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F227" s="217" t="s">
+      <c r="F227" s="211" t="s">
         <v>176</v>
       </c>
       <c r="G227" s="25"/>
@@ -13579,12 +13572,12 @@
     <row r="232" spans="1:12" ht="15.75" customHeight="1">
       <c r="A232" s="55"/>
       <c r="B232" s="129"/>
-      <c r="C232" s="172" t="s">
+      <c r="C232" s="212" t="s">
         <v>122</v>
       </c>
-      <c r="D232" s="173"/>
-      <c r="E232" s="173"/>
-      <c r="F232" s="174"/>
+      <c r="D232" s="213"/>
+      <c r="E232" s="213"/>
+      <c r="F232" s="214"/>
       <c r="G232" s="88"/>
       <c r="H232" s="89"/>
       <c r="I232" s="90"/>
@@ -13632,12 +13625,12 @@
     </row>
     <row r="236" spans="1:12" ht="15.75" customHeight="1">
       <c r="A236" s="135"/>
-      <c r="B236" s="175" t="s">
+      <c r="B236" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="C236" s="176"/>
-      <c r="D236" s="176"/>
-      <c r="E236" s="177"/>
+      <c r="C236" s="216"/>
+      <c r="D236" s="216"/>
+      <c r="E236" s="217"/>
       <c r="F236" s="99"/>
       <c r="G236" s="100"/>
       <c r="H236" s="98"/>
@@ -14110,12 +14103,12 @@
     <row r="253" spans="1:12" ht="15.75" customHeight="1">
       <c r="A253" s="55"/>
       <c r="B253" s="129"/>
-      <c r="C253" s="172" t="s">
+      <c r="C253" s="212" t="s">
         <v>125</v>
       </c>
-      <c r="D253" s="173"/>
-      <c r="E253" s="173"/>
-      <c r="F253" s="174"/>
+      <c r="D253" s="213"/>
+      <c r="E253" s="213"/>
+      <c r="F253" s="214"/>
       <c r="G253" s="88"/>
       <c r="H253" s="89"/>
       <c r="I253" s="90"/>
@@ -14163,12 +14156,12 @@
     </row>
     <row r="257" spans="1:12" ht="15.75" customHeight="1">
       <c r="A257" s="135"/>
-      <c r="B257" s="175" t="s">
+      <c r="B257" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="C257" s="176"/>
-      <c r="D257" s="176"/>
-      <c r="E257" s="177"/>
+      <c r="C257" s="216"/>
+      <c r="D257" s="216"/>
+      <c r="E257" s="217"/>
       <c r="F257" s="99"/>
       <c r="G257" s="100"/>
       <c r="H257" s="98"/>
@@ -14641,12 +14634,12 @@
     <row r="274" spans="1:12" ht="15.75" customHeight="1">
       <c r="A274" s="55"/>
       <c r="B274" s="129"/>
-      <c r="C274" s="172" t="s">
+      <c r="C274" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="D274" s="173"/>
-      <c r="E274" s="173"/>
-      <c r="F274" s="174"/>
+      <c r="D274" s="213"/>
+      <c r="E274" s="213"/>
+      <c r="F274" s="214"/>
       <c r="G274" s="88"/>
       <c r="H274" s="89"/>
       <c r="I274" s="90"/>
@@ -14690,12 +14683,12 @@
     </row>
     <row r="277" spans="1:12" ht="15.75" customHeight="1">
       <c r="A277" s="135"/>
-      <c r="B277" s="175" t="s">
+      <c r="B277" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="C277" s="176"/>
-      <c r="D277" s="176"/>
-      <c r="E277" s="177"/>
+      <c r="C277" s="216"/>
+      <c r="D277" s="216"/>
+      <c r="E277" s="217"/>
       <c r="F277" s="99"/>
       <c r="G277" s="100"/>
       <c r="H277" s="98"/>
@@ -15168,12 +15161,12 @@
     <row r="294" spans="1:12" ht="15.75" customHeight="1">
       <c r="A294" s="55"/>
       <c r="B294" s="129"/>
-      <c r="C294" s="172" t="s">
+      <c r="C294" s="212" t="s">
         <v>135</v>
       </c>
-      <c r="D294" s="173"/>
-      <c r="E294" s="173"/>
-      <c r="F294" s="174"/>
+      <c r="D294" s="213"/>
+      <c r="E294" s="213"/>
+      <c r="F294" s="214"/>
       <c r="G294" s="88"/>
       <c r="H294" s="89"/>
       <c r="I294" s="90"/>
@@ -15221,12 +15214,12 @@
     </row>
     <row r="298" spans="1:12" ht="15.75" customHeight="1">
       <c r="A298" s="135"/>
-      <c r="B298" s="175" t="s">
+      <c r="B298" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="C298" s="176"/>
-      <c r="D298" s="176"/>
-      <c r="E298" s="177"/>
+      <c r="C298" s="216"/>
+      <c r="D298" s="216"/>
+      <c r="E298" s="217"/>
       <c r="F298" s="99"/>
       <c r="G298" s="100"/>
       <c r="H298" s="98"/>
@@ -15699,12 +15692,12 @@
     <row r="315" spans="1:12" ht="15.75" customHeight="1">
       <c r="A315" s="55"/>
       <c r="B315" s="129"/>
-      <c r="C315" s="172" t="s">
+      <c r="C315" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="D315" s="173"/>
-      <c r="E315" s="173"/>
-      <c r="F315" s="174"/>
+      <c r="D315" s="213"/>
+      <c r="E315" s="213"/>
+      <c r="F315" s="214"/>
       <c r="G315" s="88"/>
       <c r="H315" s="89"/>
       <c r="I315" s="90"/>
@@ -15752,12 +15745,12 @@
     </row>
     <row r="319" spans="1:12" ht="15.75" customHeight="1">
       <c r="A319" s="135"/>
-      <c r="B319" s="175" t="s">
+      <c r="B319" s="215" t="s">
         <v>140</v>
       </c>
-      <c r="C319" s="176"/>
-      <c r="D319" s="176"/>
-      <c r="E319" s="177"/>
+      <c r="C319" s="216"/>
+      <c r="D319" s="216"/>
+      <c r="E319" s="217"/>
       <c r="F319" s="99"/>
       <c r="G319" s="100"/>
       <c r="H319" s="98"/>
@@ -16230,12 +16223,12 @@
     <row r="336" spans="1:12" ht="15.75" customHeight="1">
       <c r="A336" s="55"/>
       <c r="B336" s="129"/>
-      <c r="C336" s="172" t="s">
+      <c r="C336" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="D336" s="173"/>
-      <c r="E336" s="173"/>
-      <c r="F336" s="174"/>
+      <c r="D336" s="213"/>
+      <c r="E336" s="213"/>
+      <c r="F336" s="214"/>
       <c r="G336" s="88"/>
       <c r="H336" s="89"/>
       <c r="I336" s="90"/>
@@ -16287,12 +16280,12 @@
     </row>
     <row r="341" spans="1:12" ht="15.75" customHeight="1">
       <c r="A341" s="135"/>
-      <c r="B341" s="175" t="s">
+      <c r="B341" s="215" t="s">
         <v>148</v>
       </c>
-      <c r="C341" s="176"/>
-      <c r="D341" s="176"/>
-      <c r="E341" s="177"/>
+      <c r="C341" s="216"/>
+      <c r="D341" s="216"/>
+      <c r="E341" s="217"/>
       <c r="F341" s="99"/>
       <c r="G341" s="100"/>
       <c r="H341" s="98"/>
@@ -16826,12 +16819,12 @@
     <row r="360" spans="1:12" ht="15.75" customHeight="1">
       <c r="A360" s="139"/>
       <c r="B360" s="129"/>
-      <c r="C360" s="172" t="s">
+      <c r="C360" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="D360" s="173"/>
-      <c r="E360" s="173"/>
-      <c r="F360" s="174"/>
+      <c r="D360" s="213"/>
+      <c r="E360" s="213"/>
+      <c r="F360" s="214"/>
       <c r="G360" s="88"/>
       <c r="H360" s="89"/>
       <c r="I360" s="90"/>
@@ -16879,12 +16872,12 @@
     </row>
     <row r="364" spans="1:12" ht="15.75" customHeight="1">
       <c r="A364" s="135"/>
-      <c r="B364" s="175" t="s">
+      <c r="B364" s="215" t="s">
         <v>156</v>
       </c>
-      <c r="C364" s="176"/>
-      <c r="D364" s="176"/>
-      <c r="E364" s="177"/>
+      <c r="C364" s="216"/>
+      <c r="D364" s="216"/>
+      <c r="E364" s="217"/>
       <c r="F364" s="99"/>
       <c r="G364" s="100"/>
       <c r="H364" s="98"/>
@@ -17384,12 +17377,12 @@
     <row r="382" spans="1:12" ht="15.75" customHeight="1">
       <c r="A382" s="139"/>
       <c r="B382" s="129"/>
-      <c r="C382" s="172" t="s">
+      <c r="C382" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="D382" s="173"/>
-      <c r="E382" s="173"/>
-      <c r="F382" s="174"/>
+      <c r="D382" s="213"/>
+      <c r="E382" s="213"/>
+      <c r="F382" s="214"/>
       <c r="G382" s="88"/>
       <c r="H382" s="89"/>
       <c r="I382" s="90"/>
@@ -17437,12 +17430,12 @@
     </row>
     <row r="386" spans="1:12" ht="15.75" customHeight="1">
       <c r="A386" s="135"/>
-      <c r="B386" s="175" t="s">
+      <c r="B386" s="215" t="s">
         <v>155</v>
       </c>
-      <c r="C386" s="176"/>
-      <c r="D386" s="176"/>
-      <c r="E386" s="177"/>
+      <c r="C386" s="216"/>
+      <c r="D386" s="216"/>
+      <c r="E386" s="217"/>
       <c r="F386" s="99"/>
       <c r="G386" s="100"/>
       <c r="H386" s="98"/>
@@ -17680,30 +17673,30 @@
       <c r="L394" s="97"/>
     </row>
     <row r="395" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A395" s="184" t="s">
+      <c r="A395" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="B395" s="185"/>
-      <c r="C395" s="186" t="s">
+      <c r="B395" s="179"/>
+      <c r="C395" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="D395" s="187"/>
-      <c r="E395" s="188" t="s">
+      <c r="D395" s="181"/>
+      <c r="E395" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="F395" s="189"/>
-      <c r="G395" s="190"/>
-      <c r="H395" s="191" t="s">
-        <v>21</v>
-      </c>
-      <c r="I395" s="192" t="s">
-        <v>21</v>
-      </c>
-      <c r="J395" s="193" t="s">
-        <v>23</v>
-      </c>
-      <c r="K395" s="194"/>
-      <c r="L395" s="194">
+      <c r="F395" s="183"/>
+      <c r="G395" s="184"/>
+      <c r="H395" s="185" t="s">
+        <v>21</v>
+      </c>
+      <c r="I395" s="186" t="s">
+        <v>21</v>
+      </c>
+      <c r="J395" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="K395" s="188"/>
+      <c r="L395" s="188">
         <v>2</v>
       </c>
     </row>
@@ -17711,20 +17704,20 @@
       <c r="A396" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="B396" s="206"/>
+      <c r="B396" s="200"/>
       <c r="C396" s="114" t="s">
         <v>95</v>
       </c>
       <c r="D396" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="E396" s="207" t="s">
+      <c r="E396" s="201" t="s">
         <v>93</v>
       </c>
       <c r="F396" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="G396" s="208" t="s">
+      <c r="G396" s="202" t="s">
         <v>94</v>
       </c>
       <c r="H396" s="83" t="s">
@@ -17742,32 +17735,32 @@
       </c>
     </row>
     <row r="397" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A397" s="195" t="s">
+      <c r="A397" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="B397" s="196"/>
-      <c r="C397" s="197" t="s">
+      <c r="B397" s="190"/>
+      <c r="C397" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="D397" s="198" t="s">
+      <c r="D397" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="E397" s="199" t="s">
+      <c r="E397" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="F397" s="200"/>
-      <c r="G397" s="201"/>
-      <c r="H397" s="202" t="s">
-        <v>21</v>
-      </c>
-      <c r="I397" s="203" t="s">
-        <v>21</v>
-      </c>
-      <c r="J397" s="204" t="s">
-        <v>23</v>
-      </c>
-      <c r="K397" s="205"/>
-      <c r="L397" s="205">
+      <c r="F397" s="194"/>
+      <c r="G397" s="195"/>
+      <c r="H397" s="196" t="s">
+        <v>21</v>
+      </c>
+      <c r="I397" s="197" t="s">
+        <v>21</v>
+      </c>
+      <c r="J397" s="198" t="s">
+        <v>23</v>
+      </c>
+      <c r="K397" s="199"/>
+      <c r="L397" s="199">
         <v>1</v>
       </c>
     </row>
@@ -17916,12 +17909,12 @@
     <row r="403" spans="1:12" ht="15.75" customHeight="1">
       <c r="A403" s="139"/>
       <c r="B403" s="129"/>
-      <c r="C403" s="172" t="s">
+      <c r="C403" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="D403" s="173"/>
-      <c r="E403" s="173"/>
-      <c r="F403" s="174"/>
+      <c r="D403" s="213"/>
+      <c r="E403" s="213"/>
+      <c r="F403" s="214"/>
       <c r="G403" s="88"/>
       <c r="H403" s="89"/>
       <c r="I403" s="90"/>
@@ -17965,12 +17958,12 @@
     </row>
     <row r="406" spans="1:12" ht="15.75" customHeight="1">
       <c r="A406" s="135"/>
-      <c r="B406" s="175" t="s">
+      <c r="B406" s="215" t="s">
         <v>158</v>
       </c>
-      <c r="C406" s="176"/>
-      <c r="D406" s="176"/>
-      <c r="E406" s="177"/>
+      <c r="C406" s="216"/>
+      <c r="D406" s="216"/>
+      <c r="E406" s="217"/>
       <c r="F406" s="99"/>
       <c r="G406" s="100"/>
       <c r="H406" s="98"/>
@@ -18446,12 +18439,12 @@
     <row r="423" spans="1:12" ht="15.75" customHeight="1">
       <c r="A423" s="55"/>
       <c r="B423" s="129"/>
-      <c r="C423" s="172" t="s">
+      <c r="C423" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="D423" s="173"/>
-      <c r="E423" s="173"/>
-      <c r="F423" s="174"/>
+      <c r="D423" s="213"/>
+      <c r="E423" s="213"/>
+      <c r="F423" s="214"/>
       <c r="G423" s="88"/>
       <c r="H423" s="89"/>
       <c r="I423" s="90"/>
@@ -18499,12 +18492,12 @@
     </row>
     <row r="427" spans="1:12" ht="15.75" customHeight="1">
       <c r="A427" s="135"/>
-      <c r="B427" s="175" t="s">
+      <c r="B427" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="C427" s="176"/>
-      <c r="D427" s="176"/>
-      <c r="E427" s="177"/>
+      <c r="C427" s="216"/>
+      <c r="D427" s="216"/>
+      <c r="E427" s="217"/>
       <c r="F427" s="99"/>
       <c r="G427" s="100"/>
       <c r="H427" s="98"/>
@@ -18894,7 +18887,7 @@
       </c>
     </row>
     <row r="441" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A441" s="209">
+      <c r="A441" s="203">
         <v>6624181</v>
       </c>
       <c r="B441" s="127"/>
@@ -19004,12 +18997,12 @@
     <row r="445" spans="1:12" ht="15.75" customHeight="1">
       <c r="A445" s="55"/>
       <c r="B445" s="129"/>
-      <c r="C445" s="172" t="s">
+      <c r="C445" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="D445" s="173"/>
-      <c r="E445" s="173"/>
-      <c r="F445" s="174"/>
+      <c r="D445" s="213"/>
+      <c r="E445" s="213"/>
+      <c r="F445" s="214"/>
       <c r="G445" s="88"/>
       <c r="H445" s="89"/>
       <c r="I445" s="90"/>
@@ -19067,12 +19060,12 @@
     </row>
     <row r="449" spans="1:12" ht="15.75" customHeight="1">
       <c r="A449" s="135"/>
-      <c r="B449" s="175" t="s">
+      <c r="B449" s="215" t="s">
         <v>167</v>
       </c>
-      <c r="C449" s="176"/>
-      <c r="D449" s="176"/>
-      <c r="E449" s="177"/>
+      <c r="C449" s="216"/>
+      <c r="D449" s="216"/>
+      <c r="E449" s="217"/>
       <c r="F449" s="99"/>
       <c r="G449" s="100"/>
       <c r="H449" s="98"/>
@@ -19546,12 +19539,12 @@
     <row r="466" spans="1:12" ht="15.75" customHeight="1">
       <c r="A466" s="55"/>
       <c r="B466" s="129"/>
-      <c r="C466" s="172" t="s">
+      <c r="C466" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="D466" s="173"/>
-      <c r="E466" s="173"/>
-      <c r="F466" s="174"/>
+      <c r="D466" s="213"/>
+      <c r="E466" s="213"/>
+      <c r="F466" s="214"/>
       <c r="G466" s="88"/>
       <c r="H466" s="89"/>
       <c r="I466" s="90"/>
@@ -19599,12 +19592,12 @@
     </row>
     <row r="470" spans="1:12" ht="15.75" customHeight="1">
       <c r="A470" s="135"/>
-      <c r="B470" s="175" t="s">
+      <c r="B470" s="215" t="s">
         <v>168</v>
       </c>
-      <c r="C470" s="176"/>
-      <c r="D470" s="176"/>
-      <c r="E470" s="177"/>
+      <c r="C470" s="216"/>
+      <c r="D470" s="216"/>
+      <c r="E470" s="217"/>
       <c r="F470" s="99"/>
       <c r="G470" s="100"/>
       <c r="H470" s="98"/>
@@ -20078,12 +20071,12 @@
     <row r="487" spans="1:12" ht="15.75" customHeight="1">
       <c r="A487" s="55"/>
       <c r="B487" s="129"/>
-      <c r="C487" s="172" t="s">
+      <c r="C487" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="D487" s="173"/>
-      <c r="E487" s="173"/>
-      <c r="F487" s="174"/>
+      <c r="D487" s="213"/>
+      <c r="E487" s="213"/>
+      <c r="F487" s="214"/>
       <c r="G487" s="88"/>
       <c r="H487" s="89"/>
       <c r="I487" s="90"/>
@@ -20131,12 +20124,12 @@
     </row>
     <row r="491" spans="1:12" ht="15.75" customHeight="1">
       <c r="A491" s="135"/>
-      <c r="B491" s="175" t="s">
+      <c r="B491" s="215" t="s">
         <v>173</v>
       </c>
-      <c r="C491" s="176"/>
-      <c r="D491" s="176"/>
-      <c r="E491" s="177"/>
+      <c r="C491" s="216"/>
+      <c r="D491" s="216"/>
+      <c r="E491" s="217"/>
       <c r="F491" s="99"/>
       <c r="G491" s="100"/>
       <c r="H491" s="98"/>
@@ -20610,12 +20603,12 @@
     <row r="508" spans="1:12" ht="15.75" customHeight="1">
       <c r="A508" s="55"/>
       <c r="B508" s="129"/>
-      <c r="C508" s="172" t="s">
+      <c r="C508" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="D508" s="173"/>
-      <c r="E508" s="173"/>
-      <c r="F508" s="174"/>
+      <c r="D508" s="213"/>
+      <c r="E508" s="213"/>
+      <c r="F508" s="214"/>
       <c r="G508" s="88"/>
       <c r="H508" s="89"/>
       <c r="I508" s="90"/>
@@ -22551,36 +22544,14 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C466:F466"/>
-    <mergeCell ref="B470:E470"/>
-    <mergeCell ref="C487:F487"/>
-    <mergeCell ref="B491:E491"/>
-    <mergeCell ref="C508:F508"/>
-    <mergeCell ref="B406:E406"/>
-    <mergeCell ref="C423:F423"/>
-    <mergeCell ref="B427:E427"/>
-    <mergeCell ref="C445:F445"/>
-    <mergeCell ref="B449:E449"/>
-    <mergeCell ref="C360:F360"/>
-    <mergeCell ref="B364:E364"/>
-    <mergeCell ref="C382:F382"/>
-    <mergeCell ref="B386:E386"/>
-    <mergeCell ref="C403:F403"/>
-    <mergeCell ref="B298:E298"/>
-    <mergeCell ref="C315:F315"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="C336:F336"/>
-    <mergeCell ref="B341:E341"/>
-    <mergeCell ref="C253:F253"/>
-    <mergeCell ref="B257:E257"/>
-    <mergeCell ref="C274:F274"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C209:F209"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B236:E236"/>
+    <mergeCell ref="C166:F166"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="C146:F146"/>
+    <mergeCell ref="B149:E149"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="C104:F104"/>
     <mergeCell ref="B2:E2"/>
@@ -22591,747 +22562,769 @@
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C166:F166"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="C189:F189"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="C146:F146"/>
-    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C209:F209"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B236:E236"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="B257:E257"/>
+    <mergeCell ref="C274:F274"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="B298:E298"/>
+    <mergeCell ref="C315:F315"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="C336:F336"/>
+    <mergeCell ref="B341:E341"/>
+    <mergeCell ref="C360:F360"/>
+    <mergeCell ref="B364:E364"/>
+    <mergeCell ref="C382:F382"/>
+    <mergeCell ref="B386:E386"/>
+    <mergeCell ref="C403:F403"/>
+    <mergeCell ref="B406:E406"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="B427:E427"/>
+    <mergeCell ref="C445:F445"/>
+    <mergeCell ref="B449:E449"/>
+    <mergeCell ref="C466:F466"/>
+    <mergeCell ref="B470:E470"/>
+    <mergeCell ref="C487:F487"/>
+    <mergeCell ref="B491:E491"/>
+    <mergeCell ref="C508:F508"/>
   </mergeCells>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="447" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="546" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="446" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="547" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="445" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="548" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="444" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="573" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="443" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="574" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="442" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="575" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="441" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="687" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="440" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="688" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="439" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="689" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="438" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="465" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="437" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="466" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="436" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="467" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="435" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="443" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="434" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="444" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="433" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="445" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="432" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="406" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="431" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="407" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="430" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="408" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="429" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="397" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="428" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="398" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="427" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="399" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="426" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="387" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="425" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="388" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="424" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="389" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="423" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="383" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="422" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="384" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="421" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="385" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="420" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="367" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="419" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="368" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="418" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="369" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="417" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="350" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="416" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="351" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="415" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="352" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125">
-    <cfRule type="cellIs" dxfId="414" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="347" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125">
-    <cfRule type="cellIs" dxfId="413" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="348" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125">
-    <cfRule type="cellIs" dxfId="412" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="349" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="411" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="332" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="410" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="333" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="409" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="334" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="408" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="329" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="407" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="330" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="406" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="331" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="405" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="314" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="404" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="315" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="403" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="316" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166">
-    <cfRule type="cellIs" dxfId="402" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="311" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166">
-    <cfRule type="cellIs" dxfId="401" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="312" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166">
-    <cfRule type="cellIs" dxfId="400" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="313" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157">
-    <cfRule type="cellIs" dxfId="399" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="296" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157">
-    <cfRule type="cellIs" dxfId="398" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="297" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157">
-    <cfRule type="cellIs" dxfId="397" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="298" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="396" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="293" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="395" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="294" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="394" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="295" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H180">
-    <cfRule type="cellIs" dxfId="393" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="278" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H180">
-    <cfRule type="cellIs" dxfId="392" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="279" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H180">
-    <cfRule type="cellIs" dxfId="391" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="280" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H209">
-    <cfRule type="cellIs" dxfId="276" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="275" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H209">
-    <cfRule type="cellIs" dxfId="275" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="276" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H209">
-    <cfRule type="cellIs" dxfId="274" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="277" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="273" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="260" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="261" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="271" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="262" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232">
-    <cfRule type="cellIs" dxfId="258" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="257" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232">
-    <cfRule type="cellIs" dxfId="257" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="258" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232">
-    <cfRule type="cellIs" dxfId="256" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="259" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="255" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="242" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="254" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="243" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="253" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H253">
-    <cfRule type="cellIs" dxfId="240" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="239" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H253">
-    <cfRule type="cellIs" dxfId="239" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="240" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H253">
-    <cfRule type="cellIs" dxfId="238" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="241" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H244">
-    <cfRule type="cellIs" dxfId="237" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H244">
-    <cfRule type="cellIs" dxfId="236" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H244">
-    <cfRule type="cellIs" dxfId="235" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="226" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274">
-    <cfRule type="cellIs" dxfId="222" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="221" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274">
-    <cfRule type="cellIs" dxfId="221" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="222" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274">
-    <cfRule type="cellIs" dxfId="220" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="223" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H265">
-    <cfRule type="cellIs" dxfId="219" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="206" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H265">
-    <cfRule type="cellIs" dxfId="218" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H265">
-    <cfRule type="cellIs" dxfId="217" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H294">
-    <cfRule type="cellIs" dxfId="204" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="203" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H294">
-    <cfRule type="cellIs" dxfId="203" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="204" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H294">
-    <cfRule type="cellIs" dxfId="202" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="205" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="201" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="188" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="200" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="189" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285">
-    <cfRule type="cellIs" dxfId="199" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="190" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H315">
-    <cfRule type="cellIs" dxfId="186" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="185" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H315">
-    <cfRule type="cellIs" dxfId="185" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="186" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H315">
-    <cfRule type="cellIs" dxfId="184" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="187" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H306">
-    <cfRule type="cellIs" dxfId="183" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="170" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H306">
-    <cfRule type="cellIs" dxfId="182" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H306">
-    <cfRule type="cellIs" dxfId="181" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H336">
-    <cfRule type="cellIs" dxfId="168" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="167" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H336">
-    <cfRule type="cellIs" dxfId="167" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="168" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H336">
-    <cfRule type="cellIs" dxfId="166" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="169" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H327">
-    <cfRule type="cellIs" dxfId="165" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="152" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H327">
-    <cfRule type="cellIs" dxfId="164" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="153" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H327">
-    <cfRule type="cellIs" dxfId="163" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="154" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H360">
-    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="149" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H360">
-    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="150" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H360">
-    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H349">
-    <cfRule type="cellIs" dxfId="147" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H349">
-    <cfRule type="cellIs" dxfId="146" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H349">
-    <cfRule type="cellIs" dxfId="145" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H372">
-    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="130" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H372">
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H372">
-    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="132" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H382">
-    <cfRule type="cellIs" dxfId="128" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H382">
-    <cfRule type="cellIs" dxfId="127" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H382">
-    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="124" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H403">
-    <cfRule type="cellIs" dxfId="112" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H403">
-    <cfRule type="cellIs" dxfId="111" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H403">
-    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H394">
-    <cfRule type="cellIs" dxfId="109" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H394">
-    <cfRule type="cellIs" dxfId="108" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H394">
-    <cfRule type="cellIs" dxfId="107" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H423">
-    <cfRule type="cellIs" dxfId="94" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H423">
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H423">
-    <cfRule type="cellIs" dxfId="92" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H414">
-    <cfRule type="cellIs" dxfId="91" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H414">
-    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H414">
-    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H435">
-    <cfRule type="cellIs" dxfId="76" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H435">
-    <cfRule type="cellIs" dxfId="75" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H435">
-    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445">
-    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445">
-    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H445">
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H466">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H466">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H466">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H457">
-    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H457">
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H457">
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H487">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H487">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H487">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H478">
-    <cfRule type="cellIs" dxfId="35" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H478">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H478">
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H508">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H508">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H508">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H499">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H499">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H499">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
